--- a/biology/Botanique/Forêt_aux_Pays-Bas/Forêt_aux_Pays-Bas.xlsx
+++ b/biology/Botanique/Forêt_aux_Pays-Bas/Forêt_aux_Pays-Bas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_aux_Pays-Bas</t>
+          <t>Forêt_aux_Pays-Bas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux Pays-Bas, la forêt occupe une superficie de 334 000 ha, avec un taux de boisement de 9 %.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_aux_Pays-Bas</t>
+          <t>Forêt_aux_Pays-Bas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt privée représente environ 40.8 % de la superficie forestière totale des Pays-Bas et la forêt publique, 59,2 %.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_aux_Pays-Bas</t>
+          <t>Forêt_aux_Pays-Bas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Essences</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les résineux occupent 200 000 ha, soit 60 % de la superficie boisée. Le pin sylvestre est le conifère le plus présent aux Pays Bas (42 %). L'épicéa commun et l'épicéa de Sitka représentent 7 % de la forêt.
 Les feuillus les plus présents sont le chêne pédonculé et le chêne sessile (14 %).
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_aux_Pays-Bas</t>
+          <t>Forêt_aux_Pays-Bas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +590,14 @@
           <t>Production et produits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La production se repartit en plusieurs catégories :
 le bois de sciage représente 36 % de la production de la forêt. Ces bois partent pour transformation en Chine.
 le bois à papier représente 19 %
-et le bois de chauffage représente 15 %[1].</t>
+et le bois de chauffage représente 15 %.</t>
         </is>
       </c>
     </row>
